--- a/data/LSDdata.xlsx
+++ b/data/LSDdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au583430_uni_au_dk/Documents/Dokumenter/GitHub/Pedersen-2023-DFC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FEED9AA-4949-4965-8676-9439E7BF1B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{6FEED9AA-4949-4965-8676-9439E7BF1B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D828DA96-AC27-4107-91E0-EF6505AA1374}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{328C7C85-E6E6-41F5-9655-6D2DD9C0681F}"/>
+    <workbookView xWindow="-38520" yWindow="-3045" windowWidth="38640" windowHeight="21240" xr2:uid="{328C7C85-E6E6-41F5-9655-6D2DD9C0681F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="13">
   <si>
     <t>trial</t>
   </si>
   <si>
     <t>Ns</t>
-  </si>
-  <si>
-    <t>LSD2</t>
-  </si>
-  <si>
-    <t>LSD3</t>
-  </si>
-  <si>
-    <t>LSD4</t>
   </si>
   <si>
     <t>A</t>
@@ -70,15 +61,36 @@
   <si>
     <t>Injection</t>
   </si>
+  <si>
+    <t>LSDno</t>
+  </si>
+  <si>
+    <t>2 treatments</t>
+  </si>
+  <si>
+    <t>4 treatments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 treatments </t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -420,595 +432,1461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F45C38-F562-4743-90DC-69B41D5126DF}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>5.5694109999999997</v>
       </c>
-      <c r="E2">
-        <v>5.6098730000000003</v>
-      </c>
-      <c r="F2">
-        <v>5.6577679999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
         <v>4.5474050000000004</v>
       </c>
-      <c r="E3">
-        <v>4.5804419999999997</v>
-      </c>
-      <c r="F3">
-        <v>4.619548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>3.9381680000000001</v>
       </c>
-      <c r="E4">
-        <v>3.9667789999999998</v>
-      </c>
-      <c r="F4">
-        <v>4.0006459999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
         <v>3.522405</v>
       </c>
-      <c r="E5">
-        <v>3.5479949999999998</v>
-      </c>
-      <c r="F5">
-        <v>3.5782859999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>3.2155010000000002</v>
       </c>
-      <c r="E6">
-        <v>3.2388620000000001</v>
-      </c>
-      <c r="F6">
-        <v>3.2665139999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
         <v>2.9769760000000001</v>
       </c>
-      <c r="E7">
-        <v>2.9986030000000001</v>
-      </c>
-      <c r="F7">
-        <v>3.0242040000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
         <v>2.7847059999999999</v>
       </c>
-      <c r="E8">
-        <v>2.8049369999999998</v>
-      </c>
-      <c r="F8">
-        <v>2.828884</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
         <v>26.097059999999999</v>
       </c>
-      <c r="E9">
-        <v>26.286650000000002</v>
-      </c>
-      <c r="F9">
-        <v>26.51108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
         <v>21.308160000000001</v>
       </c>
-      <c r="E10">
-        <v>21.462959999999999</v>
-      </c>
-      <c r="F10">
-        <v>21.6462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
         <v>18.453410000000002</v>
       </c>
-      <c r="E11">
-        <v>18.58747</v>
-      </c>
-      <c r="F11">
-        <v>18.74616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
         <v>16.505230000000001</v>
       </c>
-      <c r="E12">
-        <v>16.625139999999998</v>
-      </c>
-      <c r="F12">
-        <v>16.76708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
         <v>15.06714</v>
       </c>
-      <c r="E13">
-        <v>15.17661</v>
-      </c>
-      <c r="F13">
-        <v>15.306179999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
         <v>13.94946</v>
       </c>
-      <c r="E14">
-        <v>14.05081</v>
-      </c>
-      <c r="F14">
-        <v>14.170769999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
         <v>13.04853</v>
       </c>
-      <c r="E15">
-        <v>13.143330000000001</v>
-      </c>
-      <c r="F15">
-        <v>13.25554</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
         <v>12.529422</v>
       </c>
-      <c r="E16">
-        <v>12.620449000000001</v>
-      </c>
-      <c r="F16">
-        <v>12.728196000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
         <v>10.230230000000001</v>
       </c>
-      <c r="E17">
-        <v>10.304553</v>
-      </c>
-      <c r="F17">
-        <v>10.392528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
         <v>8.8596389999999996</v>
       </c>
-      <c r="E18">
-        <v>8.9240049999999993</v>
-      </c>
-      <c r="F18">
-        <v>9.0001940000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
         <v>7.924302</v>
       </c>
-      <c r="E19">
-        <v>7.9818730000000002</v>
-      </c>
-      <c r="F19">
-        <v>8.0500179999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
         <v>7.2338649999999998</v>
       </c>
-      <c r="E20">
-        <v>7.2864190000000004</v>
-      </c>
-      <c r="F20">
-        <v>7.3486269999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
         <v>6.6972579999999997</v>
       </c>
-      <c r="E21">
-        <v>6.745914</v>
-      </c>
-      <c r="F21">
-        <v>6.8035069999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
         <v>6.2647110000000001</v>
       </c>
-      <c r="E22">
-        <v>6.3102239999999998</v>
-      </c>
-      <c r="F22">
-        <v>6.3640980000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
         <v>5.5042730000000004</v>
       </c>
-      <c r="E23">
-        <v>5.5442619999999998</v>
-      </c>
-      <c r="F23">
-        <v>5.591596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
         <v>4.4942200000000003</v>
       </c>
-      <c r="E24">
-        <v>4.5268709999999999</v>
-      </c>
-      <c r="F24">
-        <v>4.5655190000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
         <v>3.892109</v>
       </c>
-      <c r="E25">
-        <v>3.920385</v>
-      </c>
-      <c r="F25">
-        <v>3.953856</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
         <v>3.4812080000000001</v>
       </c>
-      <c r="E26">
-        <v>3.5064989999999998</v>
-      </c>
-      <c r="F26">
-        <v>3.5364360000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
         <v>3.1778940000000002</v>
       </c>
-      <c r="E27">
-        <v>3.2009810000000001</v>
-      </c>
-      <c r="F27">
-        <v>3.22831</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>7</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
         <v>2.9421580000000001</v>
       </c>
-      <c r="E28">
-        <v>2.963533</v>
-      </c>
-      <c r="F28">
-        <v>2.9888340000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>8</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
         <v>2.7521369999999998</v>
       </c>
-      <c r="E29">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>5.6098730000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>4.5804419999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>3.9667789999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>3.5479949999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>3.2388620000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>2.9986030000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>2.8049369999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>26.286650000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>21.462959999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>18.58747</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>16.625139999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>15.17661</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>14.05081</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>13.143330000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>12.620449000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>10.304553</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>8.9240049999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>7.9818730000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>7.2864190000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>6.745914</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>6.3102239999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>5.5442619999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>4.5268709999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>3.920385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>3.5064989999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>3.2009810000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>2.963533</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57">
         <v>2.7721309999999999</v>
       </c>
-      <c r="F29">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>5.6577679999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>4.619548</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>4.0006459999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>3.5782859999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>3.2665139999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>3.0242040000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>2.828884</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>26.51108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>21.6462</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>18.74616</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>16.76708</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>15.306179999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>14.170769999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>13.25554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>12.728196000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>10.392528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>9.0001940000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>8.0500179999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>7.3486269999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>6.8035069999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78">
+        <v>6.3640980000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79">
+        <v>5.591596</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>4.5655190000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>3.953856</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>3.5364360000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>3.22831</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>2.9888340000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85">
         <v>2.795798</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>